--- a/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
+++ b/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dvora135@fel.cvut.cz - Google Drive/Můj disk/Sdílené složky/Škola_shared/5_semestr/TSI/LAB/TSI-Lab-3/Materialy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECDC19D-42B6-A840-9F92-23C7A0E8384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB55981-5492-B247-B1D3-9BB36D5064F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="28800" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametry_pripojky" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,14 @@
     <definedName name="_xlchart.v1.11" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Parametry_pripojky!$J$12</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Parametry_pripojky!$D$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Parametry_pripojky!$G$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Parametry_pripojky!$J$12</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Parametry_pripojky!$E$14:$E$18</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Parametry_pripojky!$G$12</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Parametry_pripojky!$H$14:$H$18</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Parametry_pripojky!$J$12</definedName>
@@ -169,11 +176,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -642,83 +648,83 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2471,7 +2477,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:L18"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2490,67 +2496,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -2567,7 +2573,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="41"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -2582,7 +2588,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -2599,7 +2605,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="41"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2628,40 +2634,40 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -2874,10 +2880,10 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="25">
         <f>AVERAGE(D14:D18)</f>
         <v>20.074399999999997</v>
@@ -2962,13 +2968,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="C2:G2"/>
@@ -2977,6 +2976,13 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2985,18 +2991,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">RKHNZVRSUKVZ-1506324685-1003</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">
-      <Url>https://sharepoint.cvut.cz/team/13132/vyuka/B2B32TSI/_layouts/15/DocIdRedir.aspx?ID=RKHNZVRSUKVZ-1506324685-1003</Url>
-      <Description>RKHNZVRSUKVZ-1506324685-1003</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B60B23C5FC213C469077851CC2223D76" ma:contentTypeVersion="1" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="18f03322a8f03c6175ecf8ea822bc43d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f5515f5-1aaa-4a05-95a3-b99e49af10e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6a4ab02ea832be2404c9cc59c990a71" ns2:_="">
     <xsd:import namespace="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
@@ -3161,82 +3214,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">RKHNZVRSUKVZ-1506324685-1003</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">
+      <Url>https://sharepoint.cvut.cz/team/13132/vyuka/B2B32TSI/_layouts/15/DocIdRedir.aspx?ID=RKHNZVRSUKVZ-1506324685-1003</Url>
+      <Description>RKHNZVRSUKVZ-1506324685-1003</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5363911-B1DC-4560-9901-D9394E787227}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3BA6D1-93F8-4351-9A7E-A69B8BBD8AF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71DD60C-A7C8-45DA-902E-ACA1D0CA66C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8700A7F7-9850-4BE8-BD0B-3FE6D45A54FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3254,18 +3260,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71DD60C-A7C8-45DA-902E-ACA1D0CA66C3}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5363911-B1DC-4560-9901-D9394E787227}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3BA6D1-93F8-4351-9A7E-A69B8BBD8AF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
+++ b/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dvora135@fel.cvut.cz - Google Drive/Můj disk/Sdílené složky/Škola_shared/5_semestr/TSI/LAB/TSI-Lab-3/Materialy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB55981-5492-B247-B1D3-9BB36D5064F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F541C-2685-2A44-AE03-0252767E25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="28800" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametry_pripojky" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,24 @@
     <definedName name="_xlchart.v1.0" hidden="1">Parametry_pripojky!$D$12</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Parametry_pripojky!$G$12</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Parametry_pripojky!$H$14:$H$18</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Parametry_pripojky!$K$14:$K$18</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Parametry_pripojky!$D$12</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Parametry_pripojky!$G$12</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Parametry_pripojky!$E$14:$E$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Parametry_pripojky!$G$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Parametry_pripojky!$H$14:$H$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Parametry_pripojky!$K$14:$K$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Parametry_pripojky!$D$12</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Parametry_pripojky!$E$14:$E$18</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Přijmení a jméno:</t>
   </si>
@@ -169,7 +169,13 @@
     <t>27.11.</t>
   </si>
   <si>
-    <t>Zimanová Jana</t>
+    <t>Jakub Dvořák</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>Oprical</t>
   </si>
 </sst>
 </file>
@@ -648,6 +654,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,15 +717,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,51 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,6 +758,122 @@
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1"/>
+              <a:t>měr upstream</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5CCB4B95-8075-40EF-A9E3-E67D468BFF7C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>25.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9933"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-CFA6-4B56-974E-6DA34EEB5BC5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>26.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0066"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-CFA6-4B56-974E-6DA34EEB5BC5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>27.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Vp [Mbit/s]</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -789,7 +911,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" b="1"/>
-              <a:t>měr upstream</a:t>
+              <a:t>měr downstream</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -836,122 +958,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>27.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Vp [Mbit/s]</cx:v>
-            </cx:txData>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>S</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="cs-CZ" b="1"/>
-              <a:t>měr downstream</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{5CCB4B95-8075-40EF-A9E3-E67D468BFF7C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>25.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9933"/>
-            </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000001-CFA6-4B56-974E-6DA34EEB5BC5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>26.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0066"/>
-            </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000002-CFA6-4B56-974E-6DA34EEB5BC5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>27.11.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2476,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2496,73 +2502,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -2573,11 +2585,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>300</v>
+      </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
@@ -2588,13 +2602,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="55" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>240</v>
+      </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
@@ -2605,11 +2621,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>16</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -2634,40 +2652,40 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="34" t="s">
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -2711,31 +2729,31 @@
       <c r="C14" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="31">
         <v>20.109000000000002</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="32">
         <v>192.673</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="33">
         <v>8.94</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="31">
         <v>20.114999999999998</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="32">
         <v>200.00299999999999</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="33">
         <v>8.23</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="31">
         <v>19.957000000000001</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="32">
         <v>230.55</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="33">
         <v>8.86</v>
       </c>
     </row>
@@ -2746,31 +2764,31 @@
       <c r="C15" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="34">
         <v>20.079999999999998</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="35">
         <v>181.46600000000001</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="36">
         <v>9.0399999999999991</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="34">
         <v>19.954000000000001</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="35">
         <v>188.203</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="37">
         <v>8.3699999999999992</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="34">
         <v>20.055</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="35">
         <v>225.15199999999999</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="37">
         <v>9.06</v>
       </c>
     </row>
@@ -2781,31 +2799,31 @@
       <c r="C16" s="21">
         <v>0.625</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="34">
         <v>20.056999999999999</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="35">
         <v>183.31800000000001</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="36">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="34">
         <v>20.096</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="35">
         <v>195.10900000000001</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="37">
         <v>8.06</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="34">
         <v>20.091999999999999</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="35">
         <v>223.81100000000001</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="37">
         <v>8.0299999999999994</v>
       </c>
     </row>
@@ -2816,31 +2834,31 @@
       <c r="C17" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="34">
         <v>20.042999999999999</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="35">
         <v>151.06200000000001</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="36">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="34">
         <v>20.105</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="35">
         <v>188.67500000000001</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="37">
         <v>8.67</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="34">
         <v>20.056999999999999</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="35">
         <v>216.4</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="37">
         <v>8.3800000000000008</v>
       </c>
     </row>
@@ -2851,31 +2869,31 @@
       <c r="C18" s="22">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="38">
         <v>20.082999999999998</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="39">
         <v>182.56800000000001</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="40">
         <v>9.51</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="38">
         <v>20.085000000000001</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="39">
         <v>208.58799999999999</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="41">
         <v>8.64</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="38">
         <v>20.091000000000001</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="39">
         <v>222.684</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="41">
         <v>8.26</v>
       </c>
     </row>
@@ -2968,6 +2986,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="C2:G2"/>
@@ -2976,13 +3001,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2991,65 +3009,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">RKHNZVRSUKVZ-1506324685-1003</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">
+      <Url>https://sharepoint.cvut.cz/team/13132/vyuka/B2B32TSI/_layouts/15/DocIdRedir.aspx?ID=RKHNZVRSUKVZ-1506324685-1003</Url>
+      <Description>RKHNZVRSUKVZ-1506324685-1003</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B60B23C5FC213C469077851CC2223D76" ma:contentTypeVersion="1" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="18f03322a8f03c6175ecf8ea822bc43d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f5515f5-1aaa-4a05-95a3-b99e49af10e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6a4ab02ea832be2404c9cc59c990a71" ns2:_="">
     <xsd:import namespace="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
@@ -3214,35 +3185,82 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">RKHNZVRSUKVZ-1506324685-1003</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="4f5515f5-1aaa-4a05-95a3-b99e49af10e7">
-      <Url>https://sharepoint.cvut.cz/team/13132/vyuka/B2B32TSI/_layouts/15/DocIdRedir.aspx?ID=RKHNZVRSUKVZ-1506324685-1003</Url>
-      <Description>RKHNZVRSUKVZ-1506324685-1003</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3BA6D1-93F8-4351-9A7E-A69B8BBD8AF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5363911-B1DC-4560-9901-D9394E787227}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71DD60C-A7C8-45DA-902E-ACA1D0CA66C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8700A7F7-9850-4BE8-BD0B-3FE6D45A54FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3260,18 +3278,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71DD60C-A7C8-45DA-902E-ACA1D0CA66C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5363911-B1DC-4560-9901-D9394E787227}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3BA6D1-93F8-4351-9A7E-A69B8BBD8AF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4f5515f5-1aaa-4a05-95a3-b99e49af10e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
+++ b/Materialy/dvora135_Mereni_bezne_rychlosti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dvora135@fel.cvut.cz - Google Drive/Můj disk/Sdílené složky/Škola_shared/5_semestr/TSI/LAB/TSI-Lab-3/Materialy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F541C-2685-2A44-AE03-0252767E25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39C84F-E745-0646-B796-35430F50E296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="28800" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="29300" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametry_pripojky" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,17 @@
     <definedName name="_xlchart.v1.0" hidden="1">Parametry_pripojky!$D$12</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Parametry_pripojky!$G$12</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Parametry_pripojky!$H$14:$H$18</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Parametry_pripojky!$K$14:$K$18</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Parametry_pripojky!$D$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Parametry_pripojky!$G$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Parametry_pripojky!$E$14:$E$18</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Parametry_pripojky!$G$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Parametry_pripojky!$G$14:$G$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Parametry_pripojky!$H$14:$H$18</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Parametry_pripojky!$J$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Parametry_pripojky!$J$14:$J$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Parametry_pripojky!$K$14:$K$18</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Parametry_pripojky!$D$12</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Parametry_pripojky!$D$12:$L$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Parametry_pripojky!$E$14:$E$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Parametry_pripojky!$D$14:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -175,7 +168,7 @@
     <t>Vodafone</t>
   </si>
   <si>
-    <t>Oprical</t>
+    <t>Optical</t>
   </si>
 </sst>
 </file>
@@ -762,6 +755,122 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1"/>
+              <a:t>měr upstream</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5CCB4B95-8075-40EF-A9E3-E67D468BFF7C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>25.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9933"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-CFA6-4B56-974E-6DA34EEB5BC5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>26.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0066"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-CFA6-4B56-974E-6DA34EEB5BC5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>27.11.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Vp [Mbit/s]</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -795,7 +904,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" b="1"/>
-              <a:t>měr upstream</a:t>
+              <a:t>měr downstream</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -842,122 +951,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.5</cx:f>
-              <cx:v>27.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Vp [Mbit/s]</cx:v>
-            </cx:txData>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>S</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="cs-CZ" b="1"/>
-              <a:t>měr downstream</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{5CCB4B95-8075-40EF-A9E3-E67D468BFF7C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
-              <cx:v>25.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9933"/>
-            </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000001-CFA6-4B56-974E-6DA34EEB5BC5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>26.11.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0066"/>
-            </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000002-CFA6-4B56-974E-6DA34EEB5BC5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>27.11.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2483,7 +2476,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2797,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="21">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="34">
         <v>20.056999999999999</v>
@@ -2832,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="21">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="34">
         <v>20.042999999999999</v>
@@ -2867,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="22">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D18" s="38">
         <v>20.082999999999998</v>
